--- a/Codeshelf-0008/Codeshelf-0008.v01.bom.xlsx
+++ b/Codeshelf-0008/Codeshelf-0008.v01.bom.xlsx
@@ -5,17 +5,20 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="141" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="141" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Codeshelf-0008.v01.bom" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="104">
+  <si>
+    <t>Partlist exported from /Users/jeffw/Documents/Codeshelf/Engineering/CAD/Codeshelf-0008/Codeshelf-0008.v01.sch at 2/1/14 3:29 PM</t>
+  </si>
   <si>
     <t>Qty</t>
   </si>
@@ -44,6 +47,51 @@
     <t>Parts</t>
   </si>
   <si>
+    <t>FIDUCIAL</t>
+  </si>
+  <si>
+    <t>FIDUCIAL_1MM</t>
+  </si>
+  <si>
+    <t>U$2, U$3, U$4</t>
+  </si>
+  <si>
+    <t>JUMPER-2X-SMT-VIA</t>
+  </si>
+  <si>
+    <t>JUMPER-VIA-2X</t>
+  </si>
+  <si>
+    <t>DNP - flashing jumper</t>
+  </si>
+  <si>
+    <t>JF1, JF2</t>
+  </si>
+  <si>
+    <t>M05X2PTH</t>
+  </si>
+  <si>
+    <t>AVR_ICSP</t>
+  </si>
+  <si>
+    <t>DNP - flashing header</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>M08X2</t>
+  </si>
+  <si>
+    <t>2X8</t>
+  </si>
+  <si>
+    <t>DNP - optional channels</t>
+  </si>
+  <si>
+    <t>J3, J4</t>
+  </si>
+  <si>
     <t>74HCT193PW</t>
   </si>
   <si>
@@ -77,7 +125,7 @@
     <t>74AHC1G04DCK</t>
   </si>
   <si>
-    <t>IC1, IC2, IC3</t>
+    <t>IC1, IC2</t>
   </si>
   <si>
     <t>163-7620-E</t>
@@ -107,6 +155,21 @@
     <t>SSI-5V</t>
   </si>
   <si>
+    <t>BSS138TA</t>
+  </si>
+  <si>
+    <t>Diodes Inc</t>
+  </si>
+  <si>
+    <t>MOSFET-NCHANNELBSS138</t>
+  </si>
+  <si>
+    <t>SOT23</t>
+  </si>
+  <si>
+    <t>Q1, Q2</t>
+  </si>
+  <si>
     <t>C0603C101K5RACTU</t>
   </si>
   <si>
@@ -152,6 +215,12 @@
     <t>ERJ-2GEJ224X</t>
   </si>
   <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>R4, R5, R6, R7</t>
+  </si>
+  <si>
     <t>DNP</t>
   </si>
   <si>
@@ -176,7 +245,7 @@
     <t>C0402</t>
   </si>
   <si>
-    <t>C5, C6, C7, C8, C9, C10, C11, C12, C13, C14</t>
+    <t>C10, C11, C12, C13, C14</t>
   </si>
   <si>
     <t>L4931ABDT33-TR</t>
@@ -194,51 +263,39 @@
     <t>U3</t>
   </si>
   <si>
-    <t>MAX232DR</t>
+    <t>Q62702P5182</t>
+  </si>
+  <si>
+    <t>OSRAM</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>LEDCHIP-LED0805</t>
+  </si>
+  <si>
+    <t>CHIP-LED0805</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>Q65110P5179</t>
+  </si>
+  <si>
+    <t>GREEN</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>SN74HC595PWR</t>
   </si>
   <si>
     <t>TI</t>
   </si>
   <si>
-    <t>MAX232SOIC16</t>
-  </si>
-  <si>
-    <t>SO016</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>Q62702P5182</t>
-  </si>
-  <si>
-    <t>OSRAM</t>
-  </si>
-  <si>
-    <t>RED</t>
-  </si>
-  <si>
-    <t>LEDCHIP-LED0805</t>
-  </si>
-  <si>
-    <t>CHIP-LED0805</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>Q65110P5179</t>
-  </si>
-  <si>
-    <t>GREEN</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>SN74HC595PWR</t>
-  </si>
-  <si>
     <t>SN74HC595PW</t>
   </si>
   <si>
@@ -248,10 +305,10 @@
     <t>SN74LVC1G79DBVR</t>
   </si>
   <si>
-    <t>D-FLIP-FLOP-74LV1G79</t>
-  </si>
-  <si>
-    <t>SOT353</t>
+    <t>D-FLIP-FLOP-74LV1G79DBVR</t>
+  </si>
+  <si>
+    <t>SOT23-5</t>
   </si>
   <si>
     <t>U6, U7, U8</t>
@@ -277,9 +334,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -300,6 +357,12 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -310,7 +373,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -319,43 +382,47 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+  <cellXfs count="2">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -363,76 +430,71 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="100">
-      <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="3:3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8979591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.515306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.48469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="21.4438775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.8469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.05612244897959"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="38.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="110.326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.030612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="26.8265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.8010204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.3214285714286"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.3112244897959"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="0" t="s">
+    </row>
+    <row r="3" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>11</v>
@@ -441,79 +503,67 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="F5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="H5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="0" t="s">
+      <c r="I5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="F6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="F7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="0" t="s">
+      <c r="H7" s="0" t="s">
         <v>23</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>24</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>1</v>
       </c>
@@ -524,354 +574,475 @@
         <v>26</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="0" t="s">
+      <c r="I8" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="D9" s="0" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="F9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="I9" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="0" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="C10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="F10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="0" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="0" t="s">
+      <c r="E11" s="0" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="0" t="s">
+      <c r="F11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="I11" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="0" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="C12" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="0" t="s">
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="F12" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>220</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="0" t="s">
+      <c r="I12" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="0" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="0" t="s">
+      <c r="C13" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>390</v>
+      <c r="D13" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>0.03</v>
+        <v>52</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="0" t="s">
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="I15" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>0.86</v>
+        <v>61</v>
       </c>
       <c r="E16" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>65</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>66</v>
       </c>
       <c r="F17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="0" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>220</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="H17" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="0" t="s">
+      <c r="I18" s="0" t="s">
         <v>69</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
-      <c r="A18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="0" t="s">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="0" t="s">
+      <c r="C19" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>390</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" s="0" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
-      <c r="A19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="0" t="n">
+      <c r="I22" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="0" t="n">
         <v>0.31</v>
       </c>
-      <c r="E19" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
-      <c r="A20" s="0" t="n">
+      <c r="E24" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="0" t="n">
+      <c r="B25" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="0" t="n">
         <v>0.27</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
-      <c r="A21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="0" t="n">
+      <c r="E25" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>84</v>
+      <c r="E26" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
